--- a/doc/Quản lý sinh viên DB.xlsx
+++ b/doc/Quản lý sinh viên DB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\duyho\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Project\23\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96BCBF42-D78C-4C07-AA37-AA3D023E8544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C75ABD3-3DB0-4C88-9261-47CAC23602AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
   <si>
     <t>teachers</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>teacher_details</t>
+  </si>
+  <si>
+    <t>courses</t>
+  </si>
+  <si>
+    <t>weekday</t>
   </si>
 </sst>
 </file>
@@ -169,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +194,12 @@
         <bgColor rgb="FFFBBC04"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -201,11 +213,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -426,14 +439,15 @@
   </sheetPr>
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -653,9 +667,7 @@
       <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
@@ -688,6 +700,9 @@
       <c r="C21" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="I21" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
@@ -696,6 +711,9 @@
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
@@ -704,6 +722,9 @@
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="I23" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -711,6 +732,9 @@
       </c>
       <c r="C24" s="2" t="s">
         <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Quản lý sinh viên DB.xlsx
+++ b/doc/Quản lý sinh viên DB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Project\23\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C75ABD3-3DB0-4C88-9261-47CAC23602AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687C6599-16DA-4F55-976D-55250C94A88D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>teachers</t>
   </si>
@@ -61,9 +61,6 @@
     <t>credit</t>
   </si>
   <si>
-    <t>semester</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
@@ -115,12 +112,6 @@
     <t>year_total</t>
   </si>
   <si>
-    <t>major_teacher</t>
-  </si>
-  <si>
-    <t>major_subject</t>
-  </si>
-  <si>
     <t>schedules</t>
   </si>
   <si>
@@ -155,6 +146,9 @@
   </si>
   <si>
     <t>weekday</t>
+  </si>
+  <si>
+    <t>course_details</t>
   </si>
 </sst>
 </file>
@@ -213,12 +207,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +433,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -450,7 +446,7 @@
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -458,16 +454,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -484,7 +480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -498,10 +494,10 @@
         <v>7</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -515,10 +511,10 @@
         <v>12</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -529,147 +525,135 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="5"/>
+      <c r="I8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="I9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="5"/>
       <c r="K10" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="F11" s="6"/>
+      <c r="G11" s="5"/>
+      <c r="K11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="K12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="I16" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -677,7 +661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
@@ -685,56 +669,84 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="I21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="I23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K23" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
